--- a/clase 16 - Output data/mi_df_colores.xlsx
+++ b/clase 16 - Output data/mi_df_colores.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\py-benitez-chavez-christian-vinicio\clase 16 - Output data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,60 +57,360 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>B2:B85</c:f>
+              <c:f>Sheet1!$B$2:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
+        <c:smooth val="0"/>
+        <c:axId val="-240736960"/>
+        <c:axId val="-240744032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50010001"/>
+        <c:axId val="-240736960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
+        <c:crossAx val="-240744032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50010002"/>
+        <c:axId val="-240744032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
+        <c:crossAx val="-240736960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -113,8 +418,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -128,13 +436,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -160,7 +468,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -202,7 +510,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,9 +542,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +577,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,429 +753,431 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>1</v>
       </c>
